--- a/학습자료/단답형/객관식_영어_복습_암기표현.xlsx
+++ b/학습자료/단답형/객관식_영어_복습_암기표현.xlsx
@@ -449,14 +449,14 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>be about to 동사원형
-1. 자유로이 ~하다
-2. 막 ~하려 하다
-3. ~하는 것이 더 낫다</t>
+1. ~할 준비가 되어 있다
+2. ~할 사람이 아니다
+3. 막 ~하려 하다</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2, 막 ~하려 하다</t>
+          <t>3, 막 ~하려 하다</t>
         </is>
       </c>
     </row>
@@ -464,14 +464,14 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>be on the verge of 동명사
-1. ~할 준비가 되어 있다
-2. 유지하다
-3. 막 ~하려 하다</t>
+1. 막 ~하려 하다
+2. 기꺼이 ~하다
+3. ~할 것 같다</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3, 막 ~하려 하다</t>
+          <t>1, 막 ~하려 하다</t>
         </is>
       </c>
     </row>
@@ -479,14 +479,14 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>be on the point of 동명사
-1. ~하는 것이 더 낫다
-2. 막 ~하려 하다
-3. 유지하다</t>
+1. 기꺼이 ~하다
+2. ~하기 위해
+3. 막 ~하려 하다</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2, 막 ~하려 하다</t>
+          <t>3, 막 ~하려 하다</t>
         </is>
       </c>
     </row>
@@ -495,8 +495,8 @@
         <is>
           <t>be apt to 동사원형
 1. ~하는 경향이 있다
-2. ~하지 않을 수 없다
-3. ~할 사람이 아니다</t>
+2. 매우 ~해서 ~하다
+3. 기꺼이 ~하다</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -509,14 +509,14 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>be free to 동사원형
-1. 기꺼이 ~하다
-2. ~하는 것이 더 낫다
-3. 자유로이 ~하다</t>
+1. 막다
+2. 자유로이 ~하다
+3. 오히려 ~하고 싶다</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3, 자유로이 ~하다</t>
+          <t>2, 자유로이 ~하다</t>
         </is>
       </c>
     </row>
@@ -524,8 +524,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>be likely to 동사원형
-1. ~하곤 했다
-2. 오히려 ~하고 싶다
+1. ~할 사람이 아니다
+2. 금상첨화로
 3. ~할 것 같다</t>
         </is>
       </c>
@@ -539,9 +539,9 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>be ready to 동사원형
-1. 매우 ~해서 ~하다
+1. ~하지 않을 수 없다
 2. ~할 준비가 되어 있다
-3. ~할 것 같다</t>
+3. ~하는 것이 더 낫다</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -554,14 +554,14 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>be sure to 동사원형
-1. 자유로이 ~하다
-2. 반드시 ~하다
-3. ~하는 것이 더 낫다</t>
+1. 설상가상으로
+2. ~하는 것이 더 낫다
+3. 반드시 ~하다</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2, 반드시 ~하다</t>
+          <t>3, 반드시 ~하다</t>
         </is>
       </c>
     </row>
@@ -569,14 +569,14 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>be willing to 동사원형
-1. 자유로이 ~하다
-2. 기꺼이 ~하다
-3. ~할 것 같다</t>
+1. 기꺼이 ~하다
+2. 설상가상으로
+3. ~하기 위해</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2, 기꺼이 ~하다</t>
+          <t>1, 기꺼이 ~하다</t>
         </is>
       </c>
     </row>
@@ -585,8 +585,8 @@
         <is>
           <t>cannot but 동사원형
 1. ~하지 않을 수 없다
-2. 너무 ~해서 ~할 수 없는
-3. 오히려 ~하고 싶다</t>
+2. ~하기 위해
+3. 설상가상으로</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -598,10 +598,10 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>cannot help ＋동명사
-1. ~할 정도로 충분히 ~한
+          <t>cannot help 동명사
+1. ~하는 경향이 있다
 2. ~하지 않을 수 없다
-3. ~할 사람이 아니다</t>
+3. ~에 적임이다</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -614,219 +614,219 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>cannot help but 동사원형
+1. 자유로이 ~하다
+2. 솔직히 말하면
+3. ~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3, ~하지 않을 수 없다</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>have no choice but to 동사원형
+1. ~하지 않을 수 없다
+2. ~하기 위해
+3. ~하게 되다</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1, ~하지 않을 수 없다</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>can't refrain from 동명사
+1. 매우 ~해서 ~하다
+2. ~하지 않을 수 없다
+3. ~할 것 같다</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2, ~하지 않을 수 없다</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>enough to 동사원형
+1. ~할 준비가 되어 있다
+2. 솔직히 말하면
+3. ~할 정도로 충분히 ~한</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>3, ~할 정도로 충분히 ~한</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>had better 동사원형
+1. 막 ~하려 하다
+2. ~하는 것이 더 낫다
+3. ~하는 경향이 있다</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2, ~하는 것이 더 낫다</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>have no choice but to 동사원형
+1. ~하지 않을 수 없다
+2. 기꺼이 ~하다
+3. 너무 ~해서 ~할 수 없는</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1, ~하지 않을 수 없다</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>in order to 동사원형, so as to 동사원형
+1. 유지하다
+2. 금상첨화로
+3. ~하기 위해</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3, ~하기 위해</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>so ~ as to 동사원형
+1. ~할 사람이 아니다
+2. 매우 ~해서 ~하다
+3. 자유로이 ~하다</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2, 매우 ~해서 ~하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>to be frank with you
+1. ~하기 위해
+2. 솔직히 말하면
+3. ~할 준비가 되어 있다</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2, 솔직히 말하면</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>to make matters worse
+1. 오히려 ~하고 싶다
+2. ~할 것 같다
+3. 설상가상으로</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>3, 설상가상으로</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>to make matters better
+1. 설상가상으로
+2. ~할 사람이 아니다
+3. 금상첨화로</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>3, 금상첨화로</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>too ~ to 동사원형
+1. 금상첨화로
+2. 너무 ~해서 ~할 수 없는
+3. ~하는 것이 더 낫다</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2, 너무 ~해서 ~할 수 없는</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>used to 동사원형
+1. 유지하다
+2. ~하곤 했다
+3. ~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2, ~하곤 했다</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>would rather 동사원형
+1. ~하곤 했다
+2. ~할 준비가 되어 있다
+3. 오히려 ~하고 싶다</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>3, 오히려 ~하고 싶다</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>be the last man to 동사원형
 1. ~할 사람이 아니다
 2. 금상첨화로
-3. ~하지 않을 수 없다</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>3, ~하지 않을 수 없다</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>have no choice but to 동사원형
-1. 너무 ~해서 ~할 수 없는
-2. ~하지 않을 수 없다
-3. 막 ~하려 하다</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2, ~하지 않을 수 없다</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>can't refrain from 동명사
-1. ~하지 않을 수 없다
-2. ~할 정도로 충분히 ~한
-3. 금상첨화로</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1, ~하지 않을 수 없다</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>enough to 동사원형
-1. ~할 정도로 충분히 ~한
-2. ~에 적임이다
-3. ~하곤 했다</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1, ~할 정도로 충분히 ~한</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>had better 동사원형
-1. ~하는 것이 더 낫다
-2. 막 ~하려 하다
-3. ~하는 경향이 있다</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1, ~하는 것이 더 낫다</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>have no choice but to 동사원형
-1. ~하는 경향이 있다
-2. 매우 ~해서 ~하다
-3. ~하지 않을 수 없다</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>3, ~하지 않을 수 없다</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>in order to 동사원형, so as to 동사원형
-1. ~하는 것이 더 낫다
-2. 솔직히 말하면
-3. ~하기 위해</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>3, ~하기 위해</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>so ~ as to 동사원형
-1. ~하는 것이 더 낫다
-2. ~할 것 같다
-3. 매우 ~해서 ~하다</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>3, 매우 ~해서 ~하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>to be frank with you
-1. ~할 것 같다
-2. ~하게 되다
-3. 솔직히 말하면</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>3, 솔직히 말하면</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>to make matters worse
-1. 유지하다
-2. 설상가상으로
-3. 너무 ~해서 ~할 수 없는</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2, 설상가상으로</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>to make matters better
-1. ~하는 경향이 있다
-2. 금상첨화로
-3. 유지하다</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2, 금상첨화로</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>too ~ to 동사원형
-1. 너무 ~해서 ~할 수 없는
-2. 유지하다
-3. 막 ~하려 하다</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>1, 너무 ~해서 ~할 수 없는</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>used to 동사원형
-1. ~하곤 했다
-2. ~할 준비가 되어 있다
-3. ~에 적임이다</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>1, ~하곤 했다</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>would rather 동사원형
-1. 설상가상으로
-2. 오히려 ~하고 싶다
-3. 막다</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2, 오히려 ~하고 싶다</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>be the last man to 동사원형
-1. ~할 사람이 아니다
-2. ~에 적임이다
-3. ~하게 되다</t>
+3. 반드시 ~하다</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -840,8 +840,8 @@
         <is>
           <t>be cut out to 동사원형
 1. ~에 적임이다
-2. ~할 사람이 아니다
-3. ~하는 것이 더 낫다</t>
+2. 기꺼이 ~하다
+3. 막다</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -854,14 +854,14 @@
       <c r="A29" t="inlineStr">
         <is>
           <t>come to 동사원형
-1. 금상첨화로
-2. ~하게 되다
-3. 유지하다</t>
+1. ~하게 되다
+2. ~하는 경향이 있다
+3. ~할 준비가 되어 있다</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2, ~하게 되다</t>
+          <t>1, ~하게 되다</t>
         </is>
       </c>
     </row>
@@ -870,8 +870,8 @@
         <is>
           <t>keep 목적어 from 동명사
 1. 막다
-2. 자유로이 ~하다
-3. ~하게 되다</t>
+2. 오히려 ~하고 싶다
+3. ~하지 않을 수 없다</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -884,14 +884,14 @@
       <c r="A31" t="inlineStr">
         <is>
           <t>keep 목적어 (on) 동명사
-1. 유지하다
-2. ~하게 되다
-3. ~하지 않을 수 없다</t>
+1. 금상첨화로
+2. 솔직히 말하면
+3. 유지하다</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1, 유지하다</t>
+          <t>3, 유지하다</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/객관식_영어_복습_암기표현.xlsx
+++ b/학습자료/단답형/객관식_영어_복습_암기표현.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,9 +444,176 @@
           <t>대답</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>오답가산점</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
+        <is>
+          <t>be on the verge of 동명사
+1. 막 ~하려 하다
+2. 기꺼이 ~하다
+3. ~할 것 같다</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1, 막 ~하려 하다</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>have no choice but to 동사원형
+1. ~하지 않을 수 없다
+2. ~하기 위해
+3. ~하게 되다</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1, ~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>be cut out to 동사원형
+1. ~에 적임이다
+2. 기꺼이 ~하다
+3. 막다</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1, ~에 적임이다</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>had better 동사원형
+1. 막 ~하려 하다
+2. ~하는 것이 더 낫다
+3. ~하는 경향이 있다</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2, ~하는 것이 더 낫다</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>be apt to 동사원형
+1. ~하는 경향이 있다
+2. 매우 ~해서 ~하다
+3. 기꺼이 ~하다</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1, ~하는 경향이 있다</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>be willing to 동사원형
+1. 기꺼이 ~하다
+2. 설상가상으로
+3. ~하기 위해</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1, 기꺼이 ~하다</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>would rather 동사원형
+1. ~하곤 했다
+2. ~할 준비가 되어 있다
+3. 오히려 ~하고 싶다</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3, 오히려 ~하고 싶다</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>be sure to 동사원형
+1. 설상가상으로
+2. ~하는 것이 더 낫다
+3. 반드시 ~하다</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3, 반드시 ~하다</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>cannot help 동명사
+1. ~하는 경향이 있다
+2. ~하지 않을 수 없다
+3. ~에 적임이다</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2, ~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>be about to 동사원형
 1. ~할 준비가 되어 있다
@@ -454,29 +621,107 @@
 3. 막 ~하려 하다</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>3, 막 ~하려 하다</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>be on the verge of 동명사
-1. 막 ~하려 하다
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>have no choice but to 동사원형
+1. ~하지 않을 수 없다
 2. 기꺼이 ~하다
-3. ~할 것 같다</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1, 막 ~하려 하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+3. 너무 ~해서 ~할 수 없는</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1, ~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>be ready to 동사원형
+1. ~하지 않을 수 없다
+2. ~할 준비가 되어 있다
+3. ~하는 것이 더 낫다</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2, ~할 준비가 되어 있다</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>cannot but 동사원형
+1. ~하지 않을 수 없다
+2. ~하기 위해
+3. 설상가상으로</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1, ~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>be free to 동사원형
+1. 막다
+2. 자유로이 ~하다
+3. 오히려 ~하고 싶다</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2, 자유로이 ~하다</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>too ~ to 동사원형
+1. 금상첨화로
+2. 너무 ~해서 ~할 수 없는
+3. ~하는 것이 더 낫다</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2, 너무 ~해서 ~할 수 없는</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
         <is>
           <t>be on the point of 동명사
 1. 기꺼이 ~하다
@@ -484,44 +729,125 @@
 3. 막 ~하려 하다</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>3, 막 ~하려 하다</t>
         </is>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>be apt to 동사원형
-1. ~하는 경향이 있다
-2. 매우 ~해서 ~하다
-3. 기꺼이 ~하다</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1, ~하는 경향이 있다</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>be free to 동사원형
-1. 막다
-2. 자유로이 ~하다
-3. 오히려 ~하고 싶다</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2, 자유로이 ~하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>can't refrain from 동명사
+1. 매우 ~해서 ~하다
+2. ~하지 않을 수 없다
+3. ~할 것 같다</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2, ~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>keep 목적어 (on) 동명사
+1. 금상첨화로
+2. 솔직히 말하면
+3. 유지하다</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3, 유지하다</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>used to 동사원형
+1. 유지하다
+2. ~하곤 했다
+3. ~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2, ~하곤 했다</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>to make matters worse
+1. 오히려 ~하고 싶다
+2. ~할 것 같다
+3. 설상가상으로</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>3, 설상가상으로</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>enough to 동사원형
+1. ~할 준비가 되어 있다
+2. 솔직히 말하면
+3. ~할 정도로 충분히 ~한</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>3, ~할 정도로 충분히 ~한</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>cannot help but 동사원형
+1. 자유로이 ~하다
+2. 솔직히 말하면
+3. ~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>3, ~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
         <is>
           <t>be likely to 동사원형
 1. ~할 사람이 아니다
@@ -529,179 +855,17 @@
 3. ~할 것 같다</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>3, ~할 것 같다</t>
         </is>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>be ready to 동사원형
-1. ~하지 않을 수 없다
-2. ~할 준비가 되어 있다
-3. ~하는 것이 더 낫다</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2, ~할 준비가 되어 있다</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>be sure to 동사원형
-1. 설상가상으로
-2. ~하는 것이 더 낫다
-3. 반드시 ~하다</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3, 반드시 ~하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>be willing to 동사원형
-1. 기꺼이 ~하다
-2. 설상가상으로
-3. ~하기 위해</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1, 기꺼이 ~하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>cannot but 동사원형
-1. ~하지 않을 수 없다
-2. ~하기 위해
-3. 설상가상으로</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1, ~하지 않을 수 없다</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>cannot help 동명사
-1. ~하는 경향이 있다
-2. ~하지 않을 수 없다
-3. ~에 적임이다</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2, ~하지 않을 수 없다</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>cannot help but 동사원형
-1. 자유로이 ~하다
-2. 솔직히 말하면
-3. ~하지 않을 수 없다</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>3, ~하지 않을 수 없다</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>have no choice but to 동사원형
-1. ~하지 않을 수 없다
-2. ~하기 위해
-3. ~하게 되다</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1, ~하지 않을 수 없다</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>can't refrain from 동명사
-1. 매우 ~해서 ~하다
-2. ~하지 않을 수 없다
-3. ~할 것 같다</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2, ~하지 않을 수 없다</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>enough to 동사원형
-1. ~할 준비가 되어 있다
-2. 솔직히 말하면
-3. ~할 정도로 충분히 ~한</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>3, ~할 정도로 충분히 ~한</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>had better 동사원형
-1. 막 ~하려 하다
-2. ~하는 것이 더 낫다
-3. ~하는 경향이 있다</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2, ~하는 것이 더 낫다</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>have no choice but to 동사원형
-1. ~하지 않을 수 없다
-2. 기꺼이 ~하다
-3. 너무 ~해서 ~할 수 없는</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1, ~하지 않을 수 없다</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="C24" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>in order to 동사원형, so as to 동사원형
 1. 유지하다
@@ -709,14 +873,17 @@
 3. ~하기 위해</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>3, ~하기 위해</t>
         </is>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="C25" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
         <is>
           <t>so ~ as to 동사원형
 1. ~할 사람이 아니다
@@ -724,14 +891,89 @@
 3. 자유로이 ~하다</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>2, 매우 ~해서 ~하다</t>
         </is>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="C26" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>come to 동사원형
+1. ~하게 되다
+2. ~하는 경향이 있다
+3. ~할 준비가 되어 있다</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1, ~하게 되다</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>to make matters better
+1. 설상가상으로
+2. ~할 사람이 아니다
+3. 금상첨화로</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>3, 금상첨화로</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>keep 목적어 from 동명사
+1. 막다
+2. 오히려 ~하고 싶다
+3. ~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1, 막다</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>be the last man to 동사원형
+1. ~할 사람이 아니다
+2. 금상첨화로
+3. 반드시 ~하다</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1, ~할 사람이 아니다</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
         <is>
           <t>to be frank with you
 1. ~하기 위해
@@ -739,160 +981,13 @@
 3. ~할 준비가 되어 있다</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>2, 솔직히 말하면</t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>to make matters worse
-1. 오히려 ~하고 싶다
-2. ~할 것 같다
-3. 설상가상으로</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>3, 설상가상으로</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>to make matters better
-1. 설상가상으로
-2. ~할 사람이 아니다
-3. 금상첨화로</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>3, 금상첨화로</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>too ~ to 동사원형
-1. 금상첨화로
-2. 너무 ~해서 ~할 수 없는
-3. ~하는 것이 더 낫다</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2, 너무 ~해서 ~할 수 없는</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>used to 동사원형
-1. 유지하다
-2. ~하곤 했다
-3. ~하지 않을 수 없다</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2, ~하곤 했다</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>would rather 동사원형
-1. ~하곤 했다
-2. ~할 준비가 되어 있다
-3. 오히려 ~하고 싶다</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>3, 오히려 ~하고 싶다</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>be the last man to 동사원형
-1. ~할 사람이 아니다
-2. 금상첨화로
-3. 반드시 ~하다</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>1, ~할 사람이 아니다</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>be cut out to 동사원형
-1. ~에 적임이다
-2. 기꺼이 ~하다
-3. 막다</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>1, ~에 적임이다</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>come to 동사원형
-1. ~하게 되다
-2. ~하는 경향이 있다
-3. ~할 준비가 되어 있다</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>1, ~하게 되다</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>keep 목적어 from 동명사
-1. 막다
-2. 오히려 ~하고 싶다
-3. ~하지 않을 수 없다</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>1, 막다</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>keep 목적어 (on) 동명사
-1. 금상첨화로
-2. 솔직히 말하면
-3. 유지하다</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>3, 유지하다</t>
-        </is>
+      <c r="C31" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
